--- a/Homework#1/salida/posts_redit.xlsx
+++ b/Homework#1/salida/posts_redit.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1n43su4</t>
+          <t>1n6mksa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saturday Morning Political Cartoon Thread</t>
+          <t>Discussion Thread: US President Trump Makes Unspecified Defense-Related Announcement</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>1529</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/politics/comments/1n43su4/saturday_morning_political_cartoon_thread/</t>
+          <t>https://www.reddit.com/r/politics/comments/1n6mksa/discussion_thread_us_president_trump_makes/</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1n4u384</t>
+          <t>1n6s5wy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trump, 79, Goes on Bizarre AI Posting Spree</t>
+          <t>GOP Rep. Thomas Massie files discharge petition to force House vote on releasing Epstein files</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10714</v>
+        <v>25266</v>
       </c>
       <c r="E3" t="n">
-        <v>838</v>
+        <v>530</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.thedailybeast.com/trump-79-goes-on-bizarre-ai-posting-spree/</t>
+          <t>https://www.cbsnews.com/news/thomas-massie-epstein-files-discharge-petition-house-vote/</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1n4uee7</t>
+          <t>1n6xprx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mike Johnson Totally Deflects When Asked About His State’s Crime Rate</t>
+          <t>Mace leaves meeting with Epstein victim visibly upset</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4892</v>
+        <v>6821</v>
       </c>
       <c r="E4" t="n">
-        <v>140</v>
+        <v>452</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://newrepublic.com/post/199857/mike-johnson-crime-louisiana-fox-news</t>
+          <t>https://thehill.com/homenews/house/5482632-mace-leaves-meeting-with-epstein-victim-visibly-upset/?fbclid=IwY2xjawMkTzhleHRuA2FlbQIxMQBicmlkETE5ZktHQXFzeE9RcVk0NU0xAR790XTwQidk0pH79qZ9Ze8Hzyv7IoBt_JBW8cpBsNPZ-bLeoRpXFrxk31JR-g_aem_6MUM7TYUvol2lxEaw6791g</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1n4stub</t>
+          <t>1n6yhwa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bernie Sanders endorses popular oyster farmer and ex Marine for U.S. Senate</t>
+          <t>As many as 100 Epstein victims will attend Washington rally Wednesday</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3667</v>
+        <v>5237</v>
       </c>
       <c r="E5" t="n">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.independent.co.uk/news/world/americas/us-politics/bernie-sanders-graham-platner-oysters-senate-b2817190.html</t>
+          <t>https://www.miamiherald.com/news/politics-government/article311942734.html</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1n4svh5</t>
+          <t>1n6woot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Newsom Trolls Trump Over Bruised Hands and Golfing Skills</t>
+          <t>Pritzker: Trump is Preparing to Deploy Texas National Guard Troops to Illinois</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2740</v>
+        <v>6264</v>
       </c>
       <c r="E6" t="n">
-        <v>161</v>
+        <v>698</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.thedailybeast.com/newsom-trolls-trump-over-bruised-hands-and-golfing-skills/</t>
+          <t>https://www.democracydocket.com/news-alerts/pritzker-trump-troop-deployments-illinois-chicago-immigration-raids/</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1n50hky</t>
+          <t>1n6p9sm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Red State Cities Under Consideration for Troop Deployments: Kristi Noem</t>
+          <t>GAVIN NEWSOM, et al., Plaintiffs, v. DONALD J. TRUMP, et al., Defendants.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>777</v>
+        <v>12235</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.newsweek.com/dhs-kristi-noem-red-state-crime-deployments-trump-2122335</t>
+          <t>https://cand.uscourts.gov/wp-content/uploads/Newsom-v-Trump-176-PCA-Order-Granting-Injunctive-Relief.pdf</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1n4ssxj</t>
+          <t>1n6jsye</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>House Republicans Investigate Wikipedia for Alleged “Anti-Israel” Bias - Wikipedia is being pressed to release names of specific editors, a tactic seemingly pushed by the Heritage Foundation.</t>
+          <t>Trump illegally sent National Guard to Los Angeles, federal judge rules</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1682</v>
+        <v>22157</v>
       </c>
       <c r="E8" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://truthout.org/articles/house-republicans-investigate-wikipedia-for-alleged-anti-israel-bias/</t>
+          <t>https://www.independent.co.uk/news/world/americas/us-politics/trump-national-guard-la-ruling-illegal-b2818545.html</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1n4kfsv</t>
+          <t>1n6sj54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Trump's distractions fail as Congress is set to return to new Epstein material</t>
+          <t>Alabama town’s first Black mayor, who had been locked out of office, wins election | CNN</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8323</v>
+        <v>4467</v>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.msnbc.com/the-briefing-with-jen-psaki/watch/trump-s-distractions-fail-as-congress-is-set-to-return-to-new-epstein-material-246172229703</t>
+          <t>https://www.cnn.com/2025/08/31/us/first-black-mayor-newbern</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1n4rsln</t>
+          <t>1n6nqk9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trump admin cuts Minnesota shooting prevention funds weeks before school attack</t>
+          <t>Grand jury refuses charges against woman accused of threatening President Trump, attorney says</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1728</v>
+        <v>8058</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.independent.co.uk/news/world/americas/us-politics/trump-administration-cut-shooting-prevention-minnesota-b2817112.html</t>
+          <t>https://www.wusa9.com/article/news/crime/grand-jury-refuses-charges-against-woman-accused-of-threatening-president-trump-attorney-says-nathalie-jones-no-true-bill-indict-indictment/65-3e5a0826-518a-4a95-b845-5a5ca1194bb7</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1n4hnl9</t>
+          <t>1n6mdvy</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'No More Conspiracy Theories. Kennedy Must Resign,' Says Sanders Amid CDC Fallout</t>
+          <t>Judge Finds Trump Is Illegally Using the Military As a ‘National Police Force’</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12994</v>
+        <v>8592</v>
       </c>
       <c r="E11" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.commondreams.org/news/bernie-sanders-rfk-jr</t>
+          <t>https://www.rollingstone.com/politics/politics-news/trump-judge-illegal-military-police-force-los-angeles-1235419900/</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1n4fe1w</t>
+          <t>1n6ot09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Netflix co-founder drops $2 million into Gavin Newsom's redistricting campaign</t>
+          <t>Mike Johnson Pulls Shady Move as Pressure Over Epstein Files Escalates</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33220</v>
+        <v>6159</v>
       </c>
       <c r="E12" t="n">
-        <v>601</v>
+        <v>241</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.politico.com/news/2025/08/29/netflix-ceo-2-million-gavin-newsom-redistricting-campaign-00536569</t>
+          <t>https://newrepublic.com/post/199885/mike-johnson-vote-epstein-files</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1n4kgzb</t>
+          <t>1n6sc6h</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trump says he will order voter ID requirement for every vote</t>
+          <t>Trump, 79, Uses Old Golf Pic to Prove He’s Alive and Well</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6805</v>
+        <v>3608</v>
       </c>
       <c r="E13" t="n">
-        <v>1281</v>
+        <v>193</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/world/us/trump-says-he-will-order-voter-id-requirement-every-vote-2025-08-31/</t>
+          <t>https://www.thedailybeast.com/trump-79-uses-old-golf-pic-to-prove-hes-alive-and-well/</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1n4r9ke</t>
+          <t>1n6v8xv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>‘He’s trying to rig the midterms’: Trump intervenes to protect his allies in Congress - With elections next year, president is pushing extraordinary measures to ensure GOP maintains control of legislature</t>
+          <t>‘I refuse to play a reality game show with Donald Trump’: Gov. JB Pritzker on Chicago threats</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1637</v>
+        <v>2348</v>
       </c>
       <c r="E14" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.theguardian.com/us-news/2025/aug/31/trump-congress-midterm-elections</t>
+          <t>https://www.msnbc.com/deadline-white-house/watch/-i-refuse-to-play-a-reality-game-show-with-donald-trump-gov-jb-pritzker-on-chicago-threats-246468677601</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1n4unzr</t>
+          <t>1n6hkww</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Epstein estate to hand ‘birthday book’ at center of Trump defamation case to Congress</t>
+          <t>Donald Trump to make televised announcement at White House</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>803</v>
+        <v>17250</v>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>3292</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.independent.co.uk/news/world/americas/us-politics/trump-epstein-birthday-book-congress-b2817082.html</t>
+          <t>https://www.newsweek.com/donald-trump-announcement-health-speculation-2122977</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1n4svvr</t>
+          <t>1n6r455</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trump’s Mental Health Plan: Defund, Incarcerate, Disappear</t>
+          <t>Federal grand jury in D.C. refuses to indict people accused in Trump’s crime crackdown</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1017</v>
+        <v>2888</v>
       </c>
       <c r="E16" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.motherjones.com/politics/2025/08/trump-mental-health-housing-homelessness-institutionalization/</t>
+          <t>https://www.advocate.com/news/grand-jury-declines-dc-prosecutions</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1n4mbku</t>
+          <t>1n6ircm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Donald Trump's net approval rating falls to lowest point ever</t>
+          <t>Bizarre Video Shows Mystery Objects Thrown From White House Window</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3590</v>
+        <v>7627</v>
       </c>
       <c r="E17" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.newsweek.com/donald-trump-approval-rating-polls-newsweek-tracker-2120862</t>
+          <t>https://www.thedailybeast.com/bizarre-video-shows-objects-being-thrown-out-of-white-house-window/</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1n4xtdu</t>
+          <t>1n6tcs7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Khanna and Massie to hold press conference with Epstein victims</t>
+          <t>Gavin Newsom's polling surge reaches major milestone</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>423</v>
+        <v>1994</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.politico.com/news/2025/08/31/jeffrey-epstein-khanna-massie-00538394</t>
+          <t>https://www.newsweek.com/gavin-newsom-polling-2028-2122975</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1n4z22v</t>
+          <t>1n6qhnq</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Surry County elections chair resigns after being accused of putting MDMA into grandchildren’s ice cream</t>
+          <t>Trump Shares Woody Allen's Praise On Social Media, And Critics Make 'Fitting' Connections - Social media users were quick to note that the Oscar-winning director and President Donald Trump were both friends with one particular person.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>346</v>
+        <v>2547</v>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.cbs17.com/news/north-carolina-news/warrants-allege-nc-county-elections-board-member-put-drugs-in-grandchildrens-ice-cream/</t>
+          <t>https://www.huffpost.com/entry/trump-shares-woody-allen-praise-social-media-reactions_n_68b6e7d4e4b0cd019d22d686</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1n4tef2</t>
+          <t>1n6g1al</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ghislaine Maxwell hinted at Epstein’s ties to Trump officials – why wasn’t she pressed for names?</t>
+          <t>Alarm after FBI arrests US army veteran for ‘conspiracy’ over protest against Ice</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>679</v>
+        <v>10775</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.theguardian.com/us-news/2025/aug/31/ghislaine-maxwell-epstein-trump</t>
+          <t>https://www.theguardian.com/us-news/2025/sep/02/fbi-arrest-us-army-veteran-ice-protest</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1n51jd4</t>
+          <t>1n6f73u</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Donald Trump is on the brink of becoming a dictator. Can he be stopped?</t>
+          <t>Trump, Gabbard fired top CIA Russia expert days after Alaska summit | The CIA officer was due to take up a prestigious assignment in Europe approved by CIA Director John Ratcliffe. Instead, her security clearance was summarily revoked.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221</v>
+        <v>13989</v>
       </c>
       <c r="E21" t="n">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.theglobeandmail.com/opinion/article-donald-trump-brink-of-dictatorship-can-he-be-stopped</t>
+          <t>https://www.washingtonpost.com/national-security/2025/08/27/cia-officer-russia-trump-gabbard/</t>
         </is>
       </c>
     </row>
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E22" t="n">
-        <v>8307</v>
+        <v>8313</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
@@ -1089,23 +1089,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1n415bq</t>
+          <t>1n6zzvi</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Why has it been so difficult for Democrats to get "over the hump" in North Carolina?</t>
+          <t>Are Democratic Leaders Of Independent Redistricting States Failing To "Meet This Moment"?</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E24" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n415bq/why_has_it_been_so_difficult_for_democrats_to_get/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n6zzvi/are_democratic_leaders_of_independent/</t>
         </is>
       </c>
     </row>
@@ -1117,23 +1117,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1n3h9ca</t>
+          <t>1n415bq</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>What do you think about Gavin Newsom's new social media campaign mocking Trump's posting style?</t>
+          <t>Why has it been so difficult for Democrats to get "over the hump" in North Carolina?</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>711</v>
+        <v>208</v>
       </c>
       <c r="E25" t="n">
-        <v>482</v>
+        <v>132</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n3h9ca/what_do_you_think_about_gavin_newsoms_new_social/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n415bq/why_has_it_been_so_difficult_for_democrats_to_get/</t>
         </is>
       </c>
     </row>
@@ -1145,23 +1145,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1n3f9s1</t>
+          <t>1n3h9ca</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Does the US constitution need to be amended to ensure no future president can get this far or further into a dictatorship again or is the problem potus and congress are breaking existing laws?</t>
+          <t>What do you think about Gavin Newsom's new social media campaign mocking Trump's posting style?</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>397</v>
+        <v>976</v>
       </c>
       <c r="E26" t="n">
-        <v>269</v>
+        <v>580</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n3f9s1/does_the_us_constitution_need_to_be_amended_to/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n3h9ca/what_do_you_think_about_gavin_newsoms_new_social/</t>
         </is>
       </c>
     </row>
@@ -1173,23 +1173,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1n2l8ia</t>
+          <t>1n3f9s1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>If JD Vance is the Republican nominee in 2028 and loses the election, will he certify his own loss?</t>
+          <t>Does the US constitution need to be amended to ensure no future president can get this far or further into a dictatorship again or is the problem potus and congress are breaking existing laws?</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E27" t="n">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n2l8ia/if_jd_vance_is_the_republican_nominee_in_2028_and/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n3f9s1/does_the_us_constitution_need_to_be_amended_to/</t>
         </is>
       </c>
     </row>
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="E28" t="n">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1229,23 +1229,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1n1u079</t>
+          <t>1n2l8ia</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Is there any scenario where the U.S. military would intervene in politics if there is a real threat to the Constitution?</t>
+          <t>If JD Vance is the Republican nominee in 2028 and loses the election, will he certify his own loss?</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>249</v>
+        <v>608</v>
       </c>
       <c r="E29" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n1u079/is_there_any_scenario_where_the_us_military_would/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n2l8ia/if_jd_vance_is_the_republican_nominee_in_2028_and/</t>
         </is>
       </c>
     </row>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1n37xll</t>
+          <t>1n1u079</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Why should a sitting President be held to the same legal standard as a civilian when it comes to lying or spreading misinformation?</t>
+          <t>Is there any scenario where the U.S. military would intervene in politics if there is a real threat to the Constitution?</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n37xll/why_should_a_sitting_president_be_held_to_the/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n1u079/is_there_any_scenario_where_the_us_military_would/</t>
         </is>
       </c>
     </row>
@@ -1285,23 +1285,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1n1apvl</t>
+          <t>1n37xll</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trump said today: “I have the right to do anything I want to do. I’m the president of the United States”. People from the US, what are your thoughts on this?</t>
+          <t>Why should a sitting President be held to the same legal standard as a civilian when it comes to lying or spreading misinformation?</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n1apvl/trump_said_today_i_have_the_right_to_do_anything/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n37xll/why_should_a_sitting_president_be_held_to_the/</t>
         </is>
       </c>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1n16f29</t>
+          <t>1n1apvl</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>In 1795, Chief Justice Jay resigned to serve as Governor of New York. In 1832, Vice President Calhoun resigned to serve in the Senate. Could such a thing happen today? Is there any scenario where a prominent politician could resign to serve a "lesser" role, or has politics become too nationalized?</t>
+          <t>Trump said today: “I have the right to do anything I want to do. I’m the president of the United States”. People from the US, what are your thoughts on this?</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n16f29/in_1795_chief_justice_jay_resigned_to_serve_as/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n1apvl/trump_said_today_i_have_the_right_to_do_anything/</t>
         </is>
       </c>
     </row>
@@ -1341,23 +1341,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1n09ltj</t>
+          <t>1n16f29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>If allegations of mortgage fraud are cause for removal of Fed Governor Lisa Cook, would 34 felony counts of fraud be cause for removal of Trump?</t>
+          <t>In 1795, Chief Justice Jay resigned to serve as Governor of New York. In 1832, Vice President Calhoun resigned to serve in the Senate. Could such a thing happen today? Is there any scenario where a prominent politician could resign to serve a "lesser" role, or has politics become too nationalized?</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n09ltj/if_allegations_of_mortgage_fraud_are_cause_for/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n16f29/in_1795_chief_justice_jay_resigned_to_serve_as/</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1mzv1a2</t>
+          <t>1n09ltj</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trump has said the DOJ will be filing a lawsuit against California's redistricting effort. With a Republican majority on the Supreme Court, can this lawsuit actually prevent California from doing what Texas is doing, giving the Republicans a House advantage?</t>
+          <t>If allegations of mortgage fraud are cause for removal of Fed Governor Lisa Cook, would 34 felony counts of fraud be cause for removal of Trump?</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1295</v>
+        <v>408</v>
       </c>
       <c r="E35" t="n">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mzv1a2/trump_has_said_the_doj_will_be_filing_a_lawsuit/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n09ltj/if_allegations_of_mortgage_fraud_are_cause_for/</t>
         </is>
       </c>
     </row>
@@ -1425,23 +1425,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1n0wgiu</t>
+          <t>1mzv1a2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Should potential 2028 Democratic hopeful make campaign promises to recognize a Palestinian state?</t>
+          <t>Trump has said the DOJ will be filing a lawsuit against California's redistricting effort. With a Republican majority on the Supreme Court, can this lawsuit actually prevent California from doing what Texas is doing, giving the Republicans a House advantage?</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="E36" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n0wgiu/should_potential_2028_democratic_hopeful_make/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mzv1a2/trump_has_said_the_doj_will_be_filing_a_lawsuit/</t>
         </is>
       </c>
     </row>
@@ -1453,23 +1453,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1mzn0u5</t>
+          <t>1n0wgiu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Is the rise of authoritarianism a systemic response to crises within liberal capitalism?</t>
+          <t>Should potential 2028 Democratic hopeful make campaign promises to recognize a Palestinian state?</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mzn0u5/is_the_rise_of_authoritarianism_a_systemic/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1n0wgiu/should_potential_2028_democratic_hopeful_make/</t>
         </is>
       </c>
     </row>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1mz6m1w</t>
+          <t>1mzn0u5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What is the tone for the DNC and the RNC primary's going to be like?</t>
+          <t>Is the rise of authoritarianism a systemic response to crises within liberal capitalism?</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E38" t="n">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mz6m1w/what_is_the_tone_for_the_dnc_and_the_rnc_primarys/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mzn0u5/is_the_rise_of_authoritarianism_a_systemic/</t>
         </is>
       </c>
     </row>
@@ -1509,23 +1509,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1myv6j9</t>
+          <t>1mz6m1w</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Can the Brownfield Problem Be Solved? What Are the Main Obstacles?</t>
+          <t>What is the tone for the DNC and the RNC primary's going to be like?</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E39" t="n">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1myv6j9/can_the_brownfield_problem_be_solved_what_are_the/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mz6m1w/what_is_the_tone_for_the_dnc_and_the_rnc_primarys/</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1565,23 +1565,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1mxwbnt</t>
+          <t>1myv6j9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Who is America's best governor?</t>
+          <t>Can the Brownfield Problem Be Solved? What Are the Main Obstacles?</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="E41" t="n">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1mxwbnt/who_is_americas_best_governor/</t>
+          <t>https://www.reddit.com/r/PoliticalDiscussion/comments/1myv6j9/can_the_brownfield_problem_be_solved_what_are_the/</t>
         </is>
       </c>
     </row>
@@ -1593,19 +1593,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1n4l34q</t>
+          <t>1n69phs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/r/WorldNews Live Thread: Russian Invasion of Ukraine Day 1284, Part 1 (Thread #1431)</t>
+          <t>/r/WorldNews Live Thread: Russian Invasion of Ukraine Day 1286, Part 1 (Thread #1433)</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>444</v>
+        <v>568</v>
       </c>
       <c r="E42" t="n">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1621,23 +1621,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1n4qqg1</t>
+          <t>1n6syys</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Russia’s 2025 Summer Offensive Ends in Heavy Losses, No Victories, Ukraine Says</t>
+          <t>Merz: Putin “may be the most serious war criminal of our time”</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10564</v>
+        <v>9837</v>
       </c>
       <c r="E43" t="n">
-        <v>398</v>
+        <v>687</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://united24media.com/latest-news/russias-2025-summer-offensive-ends-in-heavy-losses-no-victories-ukraine-says-11239</t>
+          <t>https://euromaidanpress.com/2025/09/02/merz-putin-may-be-the-most-serious-war-criminal-of-our-time/</t>
         </is>
       </c>
     </row>
@@ -1649,23 +1649,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1n4ty5j</t>
+          <t>1n6zf5r</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Venezuela warns US to stay away from national coasts</t>
+          <t>Trump says US strike on vessel in Caribbean targeted Venezuela's Tren de Aragua gang, killed 11</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4660</v>
+        <v>3024</v>
       </c>
       <c r="E44" t="n">
-        <v>365</v>
+        <v>642</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.trtworld.com/world/article/2cd488f72109</t>
+          <t>https://apnews.com/article/venezuela-strike-rubio-trump-0f901b2a30ee20e314bcab1385ffb0c0</t>
         </is>
       </c>
     </row>
@@ -1677,23 +1677,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1n51iuh</t>
+          <t>1n6vxtr</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Russia Distracts Its Citizens From Ukraine War With Nonstop Festivals</t>
+          <t>Doug Ford dumps bottle of Crown Royal, lashing out at brand over moving jobs to U.S.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1334</v>
+        <v>3341</v>
       </c>
       <c r="E45" t="n">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.nytimes.com/2025/08/30/world/europe/russia-ukraine-war-summer-in-moscow.html</t>
+          <t>https://www.ctvnews.ca/toronto/politics/queens-park/article/this-is-what-i-think-of-crown-royal-doug-ford-dumps-out-bottle-of-whisky-in-show-of-anger-over-distillers-job-cuts/</t>
         </is>
       </c>
     </row>
@@ -1705,23 +1705,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1n4vks6</t>
+          <t>1n6sxzg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Strong deterrence needed against ‘predator’ Putin, von der Leyen tells Poles</t>
+          <t>US says military strikes a "Drug Boat" originating from Venezuela</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>978</v>
+        <v>4342</v>
       </c>
       <c r="E46" t="n">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.politico.eu/article/putin-predator-von-der-leyen-tells-poles-tusk-defense-border-belarus-poland/</t>
+          <t>https://www.bloomberg.com/news/articles/2025-09-02/trump-says-miltiary-struck-boat-carrying-drugs-from-venezuela?embedded-checkout=true</t>
         </is>
       </c>
     </row>
@@ -1733,23 +1733,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1n4z5j8</t>
+          <t>1n6jk79</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Houthis storm UN building in Yemeni capital after Israel killed PM and other ministers</t>
+          <t>Ukraine’s Flamingo missile reportedly makes battlefield debut, wiping out six Russian hovercraft</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>419</v>
+        <v>11642</v>
       </c>
       <c r="E47" t="n">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/08/31/middleeast/houthis-un-building-yemen-israel-intl</t>
+          <t>https://tvpworld.com/88671811/ukraines-new-flamingo-missile-makes-battlefield-debut-wiping-out-six-russian-hovercraft-in-crimea-report</t>
         </is>
       </c>
     </row>
@@ -1761,23 +1761,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1n4vlhp</t>
+          <t>1n6sfw5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Scottish shipyards to build more frigates after Norway deal</t>
+          <t>Brazil's Supreme Court vowed Tuesday not to bend to pressure from Washington in deciding the fate of far-right former president Jair Bolsonaro, a Donald Trump ally on trial for allegedly plotting a coup</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>571</v>
+        <v>2458</v>
       </c>
       <c r="E48" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://ukdefencejournal.org.uk/scottish-shipyards-to-build-more-frigates-after-norway-deal/</t>
+          <t>https://www.rfi.fr/en/international-news/20250902-brazil-court-shuns-us-threats-as-it-mulls-bolsonaro-fate</t>
         </is>
       </c>
     </row>
@@ -1789,23 +1789,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1n4jkim</t>
+          <t>1n6wcf8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Argentina: Milei government panics after fresh leak of Karina audio</t>
+          <t>Vietnam builds runway on disputed island to counter China threat</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4692</v>
+        <v>965</v>
       </c>
       <c r="E49" t="n">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://batimes.com.ar/news/argentina/milei-government-panics-after-fresh-leak-of-karina-audio.phtml</t>
+          <t>https://www.telegraph.co.uk/world-news/2025/09/02/vietnam-builds-runway-on-disputed-island-to-counter-china/</t>
         </is>
       </c>
     </row>
@@ -1817,23 +1817,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1n4lyl2</t>
+          <t>1n6n915</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Aid flotilla with Greta Thunberg set to sail for Gaza to ‘break illegal siege’: Unspecified number of vessels due to depart Barcelona on Sunday, with dozens more expected to leave other Mediterranean ports on 4 September</t>
+          <t>NATO says it is working to counter Russia’s GPS jamming after interference with EU leader’s plane</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2763</v>
+        <v>2350</v>
       </c>
       <c r="E50" t="n">
-        <v>942</v>
+        <v>123</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.theguardian.com/environment/2025/aug/31/aid-flotilla-with-greta-thunberg-set-to-sail-for-gaza-to-break-siege</t>
+          <t>https://apnews.com/article/europe-security-russia-gps-jamming-nato-rutte-6efed7d030da19a51dfacec39ed77325</t>
         </is>
       </c>
     </row>
@@ -1845,23 +1845,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1n4wu2v</t>
+          <t>1n6ffs1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ukraine vows to retaliate after Russian attacks on power sector</t>
+          <t>Kremlin denies Trump, Putin ever agreed on face-to-face Zelensky meeting</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>403</v>
+        <v>7404</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/world/ukraine-vows-retaliate-after-russian-attacks-power-sector-2025-08-31/</t>
+          <t>https://kyivindependent.com/kremlin-denies-trump-putin-ever-agreed-on-zelensky-meeting/</t>
         </is>
       </c>
     </row>
@@ -1873,23 +1873,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1n4qqoa</t>
+          <t>1n6veds</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>China's Xi and India's Modi vow to resolve border differences at meeting in Tianjin</t>
+          <t>The Judge who defied Trump now faces Brazil's biggest case</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>871</v>
+        <v>610</v>
       </c>
       <c r="E52" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://apnews.com/article/china-india-modi-tianjin-shanghai-cooperation-organization-6357f66ef17a8e7cd1b6adb5afbb71c8</t>
+          <t>https://www.newsweek.com/brazil-judge-de-moraes-jair-bolsonaro-trial-donald-trump-2123320</t>
         </is>
       </c>
     </row>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1n4amb2</t>
+          <t>1n6jzf5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Company behind Jack Daniel's says Canadian boycott is 'significant' as sales drop 62%</t>
+          <t>Jair Bolsonaro faces justice over alleged attempt to usurp Brazilian democracy</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>18313</v>
+        <v>2271</v>
       </c>
       <c r="E53" t="n">
-        <v>869</v>
+        <v>39</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.cbc.ca/news/canada/nova-scotia/brown-forman-jack-daniels-quarterly-sales-american-alcohol-boycott-canada-1.7619950</t>
+          <t>https://www.theguardian.com/world/2025/sep/02/jair-bolsonaro-faces-justice-over-alleged-attempt-to-usurp-brazilian-democracy</t>
         </is>
       </c>
     </row>
@@ -1929,23 +1929,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1n4p6on</t>
+          <t>1n6je3y</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US nudging Europe to follow its lead, impose punitive tariffs on India</t>
+          <t>Modern Russian Missiles Can Hit Any Part of Europe Within Minutes, Rutte Warns</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1160</v>
+        <v>1664</v>
       </c>
       <c r="E54" t="n">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.indiatoday.in/india/story/white-house-has-asked-europe-to-tariff-india-like-us-over-russian-oil-imports-say-sources-2779372-2025-08-30</t>
+          <t>https://united24media.com/latest-news/modern-russian-missiles-can-hit-any-part-of-europe-within-minutes-rutte-warns-11318</t>
         </is>
       </c>
     </row>
@@ -1957,23 +1957,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1n4vevq</t>
+          <t>1n6acd0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Israel weighs West Bank annexations in response to Palestine recognition push</t>
+          <t>Indian PM meets Putin and urges him to stop war and look for peaceful settlement</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>370</v>
+        <v>9973</v>
       </c>
       <c r="E55" t="n">
-        <v>117</v>
+        <v>592</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.axios.com/2025/08/31/israel-annex-west-bank-palestine-recognition</t>
+          <t>https://www.pravda.com.ua/eng/news/2025/09/1/7528783/</t>
         </is>
       </c>
     </row>
@@ -1985,23 +1985,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1n4f483</t>
+          <t>1n6r5r6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hamas confirms death of its military leader Mohammed Sinwar</t>
+          <t>Argentina couple under house arrest amid search for painting stolen by Nazis</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5823</v>
+        <v>538</v>
       </c>
       <c r="E56" t="n">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/world/middle-east/hamas-confirms-death-its-military-leader-mohammed-sinwar-2025-08-30/</t>
+          <t>https://www.theguardian.com/world/2025/sep/02/argentina-painting-nazis-house-arrest</t>
         </is>
       </c>
     </row>
@@ -2013,23 +2013,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1n4tmg0</t>
+          <t>1n6o0n3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>India Post Suspends Booking Of All Categories Of Mail To The United States</t>
+          <t>US forces stage "realistic" drills in Caribbean amid Venezuela tensions</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>342</v>
+        <v>639</v>
       </c>
       <c r="E57" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.outlookindia.com/national/india-post-suspends-booking-of-all-categories-of-mail-to-the-united-states</t>
+          <t>https://www.newsweek.com/us-forces-realistic-drills-caribbean-venezuela-tensions-2123189</t>
         </is>
       </c>
     </row>
@@ -2041,23 +2041,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1n52kcw</t>
+          <t>1n71kin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Trump mulling postwar Gaza plan relocating 2 million Palestinians for multi-billion dollar investment</t>
+          <t>Russia's maker of T-series tanks is using hundreds of Western and foreign equipment pieces: Ukrainian intelligence</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.ynetnews.com/article/bjk007h11cgx</t>
+          <t>https://www.businessinsider.com/russia-making-tanks-hundreds-western-equipment-pieces-gur-nato-ukraine-2025-9</t>
         </is>
       </c>
     </row>
@@ -2069,23 +2069,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1n4roz9</t>
+          <t>1n6mkvv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Thousands demonstrate across Mexico for the 130,000 missing</t>
+          <t>Putin says Russia doesn't oppose Ukraine joining the EU</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>418</v>
+        <v>537</v>
       </c>
       <c r="E59" t="n">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.bbc.co.uk/news/articles/ckg4rnr720yo</t>
+          <t>https://www.reuters.com/world/china/putin-says-russia-doesnt-oppose-ukraine-joining-eu-2025-09-02/</t>
         </is>
       </c>
     </row>
@@ -2097,23 +2097,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1n457kx</t>
+          <t>1n6ul3s</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trump asked Modi for Nobel backing, his no brought 50% tariffs</t>
+          <t>France seeks arrest of Assad, six other former top Syrian officials over 2012 attack</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>40050</v>
+        <v>179</v>
       </c>
       <c r="E60" t="n">
-        <v>1380</v>
+        <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.financialexpress.com/business/modi-snubbed-trumps-noble-demand-during-phone-call-fallout-soured-ties-3962228/lite/</t>
+          <t>https://www.reuters.com/world/europe/france-seeks-arrest-assad-six-other-former-top-syrian-officials-over-2012-attack-2025-09-02/</t>
         </is>
       </c>
     </row>
@@ -2125,23 +2125,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1n4pkv4</t>
+          <t>1n6kn5a</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Anti-immigration rallies held across Australia as clashes break out in Adelaide and Melbourne</t>
+          <t>850,000 Syrian refugees have returned home since Assad's fall, UN says</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>602</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.abc.net.au/news/2025-08-31/clashes-at-march-for-australia-anti-immigration-rallies/105717532</t>
+          <t>https://abcnews.go.com/International/wireStory/850000-syrian-refugees-returned-home-assads-fall-125156437</t>
         </is>
       </c>
     </row>
